--- a/biology/Zoologie/Euphydryas_chalcedona/Euphydryas_chalcedona.xlsx
+++ b/biology/Zoologie/Euphydryas_chalcedona/Euphydryas_chalcedona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas chalcedona est une espèce de Lépidoptères de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Euphydryas, présent dans l'ouest de l'Amérique du Nord.
 </t>
@@ -511,14 +523,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euphydryas chalcedona Henry Doubleday, 1847.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas chalcedona Henry Doubleday, 1847.
 Synonymes : Melitaea chalcedona (Doubleday,1847).
-Noms vernaculaires
-Il se nomme en anglais Chalcedon Checkerspot.
-Sous-espèces
-Euphydryas chalcedona chalcedona
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Chalcedon Checkerspot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euphydryas chalcedona chalcedona
 Euphydryas chalcedona colon (Edwards, 1881) dans l'Oregon.
 Euphydryas chalcedona corralensis Emmel et Emmel, 1973)
 Euphydryas chalcedona dwinnellei H. Edwards, 1881 ;
@@ -533,76 +617,7 @@
 Euphydryas chalcedona perdiccas Edwards, 1880 ;
 Euphydryas chalcedona sierra Wright, 1905 ;
 Euphydryas chalcedona sperryi Chermock et Chermock, 1945
-Euphydryas chalcedona wallacensis Gunder, 1928[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euphydryas_chalcedona</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aspect du papillon est très variable. La face supérieure des ailes est noire avec des taches blanches et orangées en forme de damier. La face inférieure est assez semblable mais les colorations sont plus claires. Les ailes antérieures sont étroites et pointues surtout chez le mâle. L’envergure varie entre 32 et 57 mm[2],[3].
-Euphydryas editha est présent dans la même aire de répartition, est assez proche mais plus petit.
-Les chenilles sont elles aussi de diverses couleurs, blanc mat, avec des tubercules épineux noirs, ou noires mouchetées de blanc avec tubercules orange, ou noires à poils blancs et taches orange à la base des tubercules noirs[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euphydryas_chalcedona</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Les papillons sont visibles entre mai et juin dans les zones de faibles altitudes tandis qu’au dessus de 1 000 mètres, les papillons sont visibles vers le début juillet.
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Plantago, des Lonicera, des Penstemon, (Penstemon antirrhinoides, Penstemon  subserratus) et des Symphoricarpos (les symphorines)[1].
-Défense des prédateurs
-Parce qu'ils se nourrissent de ces plantes, les papillons de l'espèce Euphydryas chalcedona contiennent de grandes quantités de catalpol[5], ce qui les rend peu appétissants pour les prédateurs et sert donc de mécanisme de défense[6].
-</t>
+Euphydryas chalcedona wallacensis Gunder, 1928.</t>
         </is>
       </c>
     </row>
@@ -627,16 +642,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aspect du papillon est très variable. La face supérieure des ailes est noire avec des taches blanches et orangées en forme de damier. La face inférieure est assez semblable mais les colorations sont plus claires. Les ailes antérieures sont étroites et pointues surtout chez le mâle. L’envergure varie entre 32 et 57 mm,.
+Euphydryas editha est présent dans la même aire de répartition, est assez proche mais plus petit.
+Les chenilles sont elles aussi de diverses couleurs, blanc mat, avec des tubercules épineux noirs, ou noires mouchetées de blanc avec tubercules orange, ou noires à poils blancs et taches orange à la base des tubercules noirs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les papillons sont visibles entre mai et juin dans les zones de faibles altitudes tandis qu’au dessus de 1 000 mètres, les papillons sont visibles vers le début juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Plantago, des Lonicera, des Penstemon, (Penstemon antirrhinoides, Penstemon  subserratus) et des Symphoricarpos (les symphorines).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Défense des prédateurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parce qu'ils se nourrissent de ces plantes, les papillons de l'espèce Euphydryas chalcedona contiennent de grandes quantités de catalpol, ce qui les rend peu appétissants pour les prédateurs et sert donc de mécanisme de défense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, de l’Alaska jusqu’en Basse Californie au Mexique. Il est ainsi présent dans les régions occidentales comprises entre les montagnes Rocheuses et l’océan Pacifique[1].
-Biotope
-Divers biotopes mais souvent présente près des cours d'eau[4].
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord, de l’Alaska jusqu’en Basse Californie au Mexique. Il est ainsi présent dans les régions occidentales comprises entre les montagnes Rocheuses et l’océan Pacifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divers biotopes mais souvent présente près des cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_chalcedona</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
